--- a/tables/TableS7_power_analysis_simulation_parameters.xlsx
+++ b/tables/TableS7_power_analysis_simulation_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/Rutgers/projects/forage_fish/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97854F00-E27A-764D-B2DC-9A3154DE00EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563CAB3A-3BE6-974E-A662-9B11EE6A452C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10660" yWindow="1820" windowWidth="25440" windowHeight="15000" xr2:uid="{42ADF6C9-BB17-D943-9368-D8C73506180C}"/>
   </bookViews>
@@ -115,7 +115,7 @@
   </si>
   <si>
     <r>
-      <t>B</t>
+      <t>U</t>
     </r>
     <r>
       <rPr>
@@ -125,6 +125,123 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t>i,t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, exploitation rate time series</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF141414"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF141414"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, s.d. of the productivity process error</t>
+    </r>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Simulated</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i,t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, catch time series</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i,t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, productivity time series</t>
+    </r>
+  </si>
+  <si>
+    <t>θ, influence of prey on productivity</t>
+  </si>
+  <si>
+    <t>Estimated by the FE composite prey model</t>
+  </si>
+  <si>
+    <t>Varied (n=4): 0.25 to 1.00 by 0.25</t>
+  </si>
+  <si>
+    <t>Varied (n=4): 0.1 to 0.4 by 0.1</t>
+  </si>
+  <si>
+    <t>Number of scenarios:</t>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>0,I</t>
     </r>
     <r>
@@ -134,12 +251,15 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>, biomass in initial year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>U</t>
+      <t>, abundance in initial year</t>
+    </r>
+  </si>
+  <si>
+    <t>Observed (observed catch / observed abundance)</t>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
     </r>
     <r>
       <rPr>
@@ -158,128 +278,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>, exploitation rate time series</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>σ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF141414"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF141414"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, s.d. of the productivity process error</t>
-    </r>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i,t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, biomass time series</t>
-    </r>
-  </si>
-  <si>
-    <t>Simulated</t>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i,t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, catch time series</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i,t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, productivity time series</t>
-    </r>
-  </si>
-  <si>
-    <t>θ, influence of prey on productivity</t>
-  </si>
-  <si>
-    <t>Estimated by the FE composite prey model</t>
-  </si>
-  <si>
-    <t>Observed (observed catch / observed biomass)</t>
-  </si>
-  <si>
-    <t>Varied (n=4): 0.25 to 1.00 by 0.25</t>
-  </si>
-  <si>
-    <t>Varied (n=4): 0.1 to 0.4 by 0.1</t>
-  </si>
-  <si>
-    <t>Number of scenarios:</t>
+      <t>, abundance time series</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -702,14 +702,14 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -743,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -773,10 +773,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -784,10 +784,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -795,49 +795,49 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
         <v>16</v>
